--- a/references/mock_model.xlsx
+++ b/references/mock_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samlafell/Desktop/sports_betting_project/references/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samlafell/Desktop/over_under_project/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE0FFD-F70B-FB44-8A93-B36BF8EFE28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD388895-14FD-BE48-9733-48AFE912A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37420" yWindow="1800" windowWidth="31660" windowHeight="17560" xr2:uid="{30C85F63-7319-DF4A-BB4C-E68F650DB62B}"/>
+    <workbookView xWindow="320" yWindow="840" windowWidth="31660" windowHeight="19840" xr2:uid="{30C85F63-7319-DF4A-BB4C-E68F650DB62B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Mock Model</t>
   </si>
@@ -93,13 +93,37 @@
     <t>Opening Line</t>
   </si>
   <si>
-    <t>Over</t>
-  </si>
-  <si>
     <t>F5 Home Runs Scored</t>
   </si>
   <si>
     <t>F5 Away Runs Scored</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>DH / P</t>
+  </si>
+  <si>
+    <t>O/U</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -181,11 +205,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -202,6 +223,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A8C895-622E-6541-AAC0-128EB9EB4AC2}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,107 +564,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
-    <row r="3" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" t="s">
-        <v>18</v>
+      <c r="AA3" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43233</v>
       </c>
       <c r="B4" t="s">
@@ -643,206 +673,242 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="9">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="8">
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="8">
         <v>1</v>
       </c>
       <c r="Z4">
         <v>4</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
+      <c r="AA4" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
